--- a/StructureLocs.xlsx
+++ b/StructureLocs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\mctradepost-retro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F85D5A-B2A4-4FC3-A21E-6EB6FB32AD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CD0FCE-8A01-49CF-9B2E-4FAA1568F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="1080" windowWidth="31650" windowHeight="18540" xr2:uid="{A8250FA9-3FEF-4870-A5B5-D9F655C06814}"/>
+    <workbookView xWindow="12465" yWindow="840" windowWidth="23580" windowHeight="18540" xr2:uid="{A8250FA9-3FEF-4870-A5B5-D9F655C06814}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>Building</t>
   </si>
@@ -297,6 +297,39 @@
   </si>
   <si>
     <t>2488 -35 -191</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>1480 -51 1</t>
+  </si>
+  <si>
+    <t>1508 -30 -36</t>
+  </si>
+  <si>
+    <t>1480 -51 -47</t>
+  </si>
+  <si>
+    <t>1508 -30 -84</t>
+  </si>
+  <si>
+    <t>1480 -51 -95</t>
+  </si>
+  <si>
+    <t>1508 -30 -132</t>
+  </si>
+  <si>
+    <t>1480 -51 -143</t>
+  </si>
+  <si>
+    <t>1508 -30 -180</t>
+  </si>
+  <si>
+    <t>1480 -51 -191</t>
+  </si>
+  <si>
+    <t>1508 -30 -228</t>
   </si>
 </sst>
 </file>
@@ -671,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B118C272-02CF-4264-9B2B-F749CC7F7D83}">
   <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,48 +1889,93 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>87</v>
+      </c>
       <c r="B97">
         <v>1</v>
       </c>
+      <c r="C97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>/structurize scan 1480 -51 1 1508 -30 -36 @p "trade post/economic/university1"</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>87</v>
+      </c>
       <c r="B98">
         <v>2</v>
       </c>
+      <c r="C98" t="s">
+        <v>90</v>
+      </c>
+      <c r="D98" t="s">
+        <v>91</v>
+      </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>/structurize scan 1480 -51 -47 1508 -30 -84 @p "trade post/economic/university2"</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>87</v>
+      </c>
       <c r="B99">
         <v>3</v>
       </c>
+      <c r="C99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D99" t="s">
+        <v>93</v>
+      </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>/structurize scan 1480 -51 -95 1508 -30 -132 @p "trade post/economic/university3"</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>87</v>
+      </c>
       <c r="B100">
         <v>4</v>
       </c>
+      <c r="C100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>/structurize scan 1480 -51 -143 1508 -30 -180 @p "trade post/economic/university4"</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>87</v>
+      </c>
       <c r="B101">
         <v>5</v>
       </c>
+      <c r="C101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>/structurize scan 1480 -51 -191 1508 -30 -228 @p "trade post/economic/university5"</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">

--- a/StructureLocs.xlsx
+++ b/StructureLocs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\mctradepost-retro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CD0FCE-8A01-49CF-9B2E-4FAA1568F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2767167-EAA4-4D9B-9508-05B07C7CD3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12465" yWindow="840" windowWidth="23580" windowHeight="18540" xr2:uid="{A8250FA9-3FEF-4870-A5B5-D9F655C06814}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="171">
   <si>
     <t>Building</t>
   </si>
@@ -330,6 +330,225 @@
   </si>
   <si>
     <t>1508 -30 -228</t>
+  </si>
+  <si>
+    <t>136 -51 -13</t>
+  </si>
+  <si>
+    <t>150 -35 1</t>
+  </si>
+  <si>
+    <t>136 -51 -61</t>
+  </si>
+  <si>
+    <t>150 -35 -47</t>
+  </si>
+  <si>
+    <t>136 -51 -109</t>
+  </si>
+  <si>
+    <t>150 -35 -95</t>
+  </si>
+  <si>
+    <t>136 -51 -157</t>
+  </si>
+  <si>
+    <t>150 -35 -143</t>
+  </si>
+  <si>
+    <t>136 -51 -205</t>
+  </si>
+  <si>
+    <t>150 -35 -191</t>
+  </si>
+  <si>
+    <t>Foldler</t>
+  </si>
+  <si>
+    <t>fundamentals</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>184 -51 -13</t>
+  </si>
+  <si>
+    <t>194 -36 1</t>
+  </si>
+  <si>
+    <t>184 -51 -61</t>
+  </si>
+  <si>
+    <t>194 -36 -47</t>
+  </si>
+  <si>
+    <t>184 -51 -109</t>
+  </si>
+  <si>
+    <t>194 -36 -95</t>
+  </si>
+  <si>
+    <t>184 -51 -157</t>
+  </si>
+  <si>
+    <t>194 -36 -143</t>
+  </si>
+  <si>
+    <t>184 -51 -205</t>
+  </si>
+  <si>
+    <t>194 -36 -191</t>
+  </si>
+  <si>
+    <t>204 -51 -30</t>
+  </si>
+  <si>
+    <t>215 -41 -16</t>
+  </si>
+  <si>
+    <t>204 -51 -78</t>
+  </si>
+  <si>
+    <t>215 -41 -64</t>
+  </si>
+  <si>
+    <t>204 -51 -174</t>
+  </si>
+  <si>
+    <t>215 -41 -160</t>
+  </si>
+  <si>
+    <t>204 -51 -222</t>
+  </si>
+  <si>
+    <t>215 -41 -208</t>
+  </si>
+  <si>
+    <t>204 -51 -126</t>
+  </si>
+  <si>
+    <t>215 -41 -112</t>
+  </si>
+  <si>
+    <t>guardtower</t>
+  </si>
+  <si>
+    <t>military</t>
+  </si>
+  <si>
+    <t>760 -51 -7</t>
+  </si>
+  <si>
+    <t>768 -37 1</t>
+  </si>
+  <si>
+    <t>760 -51 -55</t>
+  </si>
+  <si>
+    <t>768 -37 -47</t>
+  </si>
+  <si>
+    <t>760 -51 -103</t>
+  </si>
+  <si>
+    <t>768 -37 -95</t>
+  </si>
+  <si>
+    <t>760 -51 -151</t>
+  </si>
+  <si>
+    <t>768 -37 -143</t>
+  </si>
+  <si>
+    <t>760 -51 -199</t>
+  </si>
+  <si>
+    <t>768 -37 -191</t>
+  </si>
+  <si>
+    <t>Target Position</t>
+  </si>
+  <si>
+    <t>232 -51 1</t>
+  </si>
+  <si>
+    <t>246 -31 -17</t>
+  </si>
+  <si>
+    <t>craftsmanship/storage</t>
+  </si>
+  <si>
+    <t>239 -44 -8</t>
+  </si>
+  <si>
+    <t>232 -51 -47</t>
+  </si>
+  <si>
+    <t>246 -31 -65</t>
+  </si>
+  <si>
+    <t>239 -44 -56</t>
+  </si>
+  <si>
+    <t>232 -51 -95</t>
+  </si>
+  <si>
+    <t>246 -31 -113</t>
+  </si>
+  <si>
+    <t>232 -51 -143</t>
+  </si>
+  <si>
+    <t>246 -31 -161</t>
+  </si>
+  <si>
+    <t>232 -51 -191</t>
+  </si>
+  <si>
+    <t>246 -31 -209</t>
+  </si>
+  <si>
+    <t>239 -44 -152</t>
+  </si>
+  <si>
+    <t>239 -44 -104</t>
+  </si>
+  <si>
+    <t>239 -44 -200</t>
+  </si>
+  <si>
+    <t>262 -51 -1</t>
+  </si>
+  <si>
+    <t>263 -49 1</t>
+  </si>
+  <si>
+    <t>262 -51 -49</t>
+  </si>
+  <si>
+    <t>263 -49 -47</t>
+  </si>
+  <si>
+    <t>262 -51 -97</t>
+  </si>
+  <si>
+    <t>263 -49 -95</t>
+  </si>
+  <si>
+    <t>262 -51 -145</t>
+  </si>
+  <si>
+    <t>263 -49 -143</t>
+  </si>
+  <si>
+    <t>262 -51 -193</t>
+  </si>
+  <si>
+    <t>263 -49 -191</t>
   </si>
 </sst>
 </file>
@@ -702,21 +921,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B118C272-02CF-4264-9B2B-F749CC7F7D83}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="97.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -730,10 +951,16 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="F1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -746,12 +973,16 @@
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="str">
-        <f>IF(OR(C2="",D2=""),"","/structurize scan "&amp;C2&amp;" "&amp;D2&amp;" @p ""trade post/economic/"&amp;A2&amp;B2&amp;"""")</f>
-        <v>/structurize scan -8 51 -18 9 -31 1 @p "trade post/economic/townhall1"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" t="str">
+        <f>IF(OR(C2="",D2=""),"","/structurize scan "&amp;C2&amp;" "&amp;D2&amp;" @p ""trade post/"&amp;E2&amp;"/"&amp;A2&amp;B2&amp;""""&amp;IF(F2="",""," " &amp;F2))</f>
+        <v>/structurize scan -8 51 -18 9 -31 1 @p "trade post/fundamentals/townhall1"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -764,12 +995,16 @@
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">IF(OR(C3="",D3=""),"","/structurize scan "&amp;C3&amp;" "&amp;D3&amp;" @p ""trade post/economic/"&amp;A3&amp;B3&amp;"""")</f>
-        <v>/structurize scan -8 -51 -66 9 -31 -47 @p "trade post/economic/townhall2"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF(OR(C3="",D3=""),"","/structurize scan "&amp;C3&amp;" "&amp;D3&amp;" @p ""trade post/"&amp;E3&amp;"/"&amp;A3&amp;B3&amp;""""&amp;IF(F3="",""," " &amp;F3))</f>
+        <v>/structurize scan -8 -51 -66 9 -31 -47 @p "trade post/fundamentals/townhall2"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -782,12 +1017,16 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan -8 -51 -114 9 -31 -95 @p "trade post/economic/townhall3"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan -8 -51 -114 9 -31 -95 @p "trade post/fundamentals/townhall3"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -800,12 +1039,16 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan -8 -51 -162 9 -31 -143 @p "trade post/economic/townhall4"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan -8 -51 -162 9 -31 -143 @p "trade post/fundamentals/townhall4"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -818,12 +1061,16 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan -8 -51 -210 9 -31 -191 @p "trade post/economic/townhall5"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan -8 -51 -210 9 -31 -191 @p "trade post/fundamentals/townhall5"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -836,12 +1083,16 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 40 -51 -10 54 -29 1 @p "trade post/economic/builder1"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 40 -51 -10 54 -29 1 @p "trade post/fundamentals/builder1"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -854,12 +1105,16 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 40 -51 -47 54 -29 -58 @p "trade post/economic/builder2"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 40 -51 -47 54 -29 -58 @p "trade post/fundamentals/builder2"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -872,12 +1127,16 @@
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 40 -51 -95 54 -29 -106 @p "trade post/economic/builder3"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 40 -51 -95 54 -29 -106 @p "trade post/fundamentals/builder3"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -890,12 +1149,16 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 40 -51 -143 54 -29 -154 @p "trade post/economic/builder4"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 40 -51 -143 54 -29 -154 @p "trade post/fundamentals/builder4"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -908,12 +1171,16 @@
       <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 40 -51 -191 54 -29 -202 @p "trade post/economic/builder5"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 40 -51 -191 54 -29 -202 @p "trade post/fundamentals/builder5"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -926,12 +1193,16 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 88 -51 1 102 -36 -17 @p "trade post/economic/residence1"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 88 -51 1 102 -36 -17 @p "trade post/fundamentals/residence1"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -944,12 +1215,16 @@
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 88 -51 -47 102 -36 -65 @p "trade post/economic/residence2"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 88 -51 -47 102 -36 -65 @p "trade post/fundamentals/residence2"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -962,12 +1237,16 @@
       <c r="D14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 88 -51 -95 102 -36 -113 @p "trade post/economic/residence3"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 88 -51 -95 102 -36 -113 @p "trade post/fundamentals/residence3"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -980,12 +1259,16 @@
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 88 -51 -143 102 -36 -161 @p "trade post/economic/residence4"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 88 -51 -143 102 -36 -161 @p "trade post/fundamentals/residence4"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -998,12 +1281,16 @@
       <c r="D16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 88 -51 -191 102 -36 -209 @p "trade post/economic/residence5"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 88 -51 -191 102 -36 -209 @p "trade post/fundamentals/residence5"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1016,12 +1303,16 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 113 -51 -30 119 -33 -23 @p "trade post/economic/dormatory1"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 113 -51 -30 119 -33 -23 @p "trade post/fundamentals/dormatory1"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1034,12 +1325,16 @@
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 113 -51 -78 119 -33 -71 @p "trade post/economic/dormatory2"</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 113 -51 -78 119 -33 -71 @p "trade post/fundamentals/dormatory2"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1052,12 +1347,16 @@
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 113 -51 -126 119 -33 -119 @p "trade post/economic/dormatory3"</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 113 -51 -126 119 -33 -119 @p "trade post/fundamentals/dormatory3"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1070,12 +1369,16 @@
       <c r="D20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 113 -51 -174 119 -33 -167 @p "trade post/economic/dormatory4"</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 113 -51 -174 119 -33 -167 @p "trade post/fundamentals/dormatory4"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1088,312 +1391,561 @@
       <c r="D21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 113 -51 -222 119 -33 -215 @p "trade post/economic/dormatory5"</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 113 -51 -222 119 -33 -215 @p "trade post/fundamentals/dormatory5"</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 136 -51 -13 150 -35 1 @p "trade post/fundamentals/miner1"</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 136 -51 -61 150 -35 -47 @p "trade post/fundamentals/miner2"</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 136 -51 -109 150 -35 -95 @p "trade post/fundamentals/miner3"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 136 -51 -157 150 -35 -143 @p "trade post/fundamentals/miner4"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 136 -51 -205 150 -35 -191 @p "trade post/fundamentals/miner5"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 184 -51 -13 194 -36 1 @p "trade post/fundamentals/forester1"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 184 -51 -61 194 -36 -47 @p "trade post/fundamentals/forester2"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 184 -51 -109 194 -36 -95 @p "trade post/fundamentals/forester3"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 184 -51 -157 194 -36 -143 @p "trade post/fundamentals/forester4"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 184 -51 -205 194 -36 -191 @p "trade post/fundamentals/forester5"</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 204 -51 -30 215 -41 -16 @p "trade post/fundamentals/altforester1"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-      <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 204 -51 -78 215 -41 -64 @p "trade post/fundamentals/altforester2"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 204 -51 -126 215 -41 -112 @p "trade post/fundamentals/altforester3"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>51</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 204 -51 -174 215 -41 -160 @p "trade post/fundamentals/altforester4"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>51</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 204 -51 -222 215 -41 -208 @p "trade post/fundamentals/altforester5"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 232 -51 1 246 -31 -17 @p "trade post/craftsmanship/storage/warehouse1" 239 -44 -8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 232 -51 -47 246 -31 -65 @p "trade post/craftsmanship/storage/warehouse2" 239 -44 -56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 232 -51 -95 246 -31 -113 @p "trade post/craftsmanship/storage/warehouse3" 239 -44 -104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 232 -51 -143 246 -31 -161 @p "trade post/craftsmanship/storage/warehouse4" 239 -44 -152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 232 -51 -191 246 -31 -209 @p "trade post/craftsmanship/storage/warehouse5" 239 -44 -200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 262 -51 -1 263 -49 1 @p "trade post/craftsmanship/storage/courier1"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>53</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 262 -51 -49 263 -49 -47 @p "trade post/craftsmanship/storage/courier2"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>53</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
-      <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 262 -51 -97 263 -49 -95 @p "trade post/craftsmanship/storage/courier3"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 262 -51 -145 263 -49 -143 @p "trade post/craftsmanship/storage/courier4"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 262 -51 -193 263 -49 -191 @p "trade post/craftsmanship/storage/courier5"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -1406,12 +1958,15 @@
       <c r="D47" t="s">
         <v>56</v>
       </c>
-      <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 328 -51 1 350 -30 -17 @p "trade post/economic/restaurant1"</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 328 -51 1 350 -30 -17 @p "trade post/fundamentals/restaurant1"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1424,12 +1979,15 @@
       <c r="D48" t="s">
         <v>58</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 328 -51 -47 350 -30 -65 @p "trade post/economic/restaurant2"</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 328 -51 -47 350 -30 -65 @p "trade post/fundamentals/restaurant2"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -1442,12 +2000,15 @@
       <c r="D49" t="s">
         <v>60</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 328 -51 -95 350 -30 -113 @p "trade post/economic/restaurant3"</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 328 -51 -95 350 -30 -113 @p "trade post/fundamentals/restaurant3"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1460,12 +2021,15 @@
       <c r="D50" t="s">
         <v>62</v>
       </c>
-      <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 328 -51 -143 350 -30 -161 @p "trade post/economic/restaurant4"</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 328 -51 -143 350 -30 -161 @p "trade post/fundamentals/restaurant4"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1478,952 +2042,1480 @@
       <c r="D51" t="s">
         <v>64</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>/structurize scan 328 -51 -191 350 -30 -209 @p "trade post/economic/restaurant5"</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>/structurize scan 328 -51 -191 350 -30 -209 @p "trade post/fundamentals/restaurant5"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>2</v>
       </c>
-      <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>4</v>
       </c>
-      <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1</v>
       </c>
-      <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>2</v>
       </c>
-      <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
-      <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1</v>
       </c>
-      <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2</v>
       </c>
-      <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>3</v>
       </c>
-      <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>4</v>
       </c>
-      <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
-      <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">IF(OR(C67="",D67=""),"","/structurize scan "&amp;C67&amp;" "&amp;D67&amp;" @p ""trade post/economic/"&amp;A67&amp;B67&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">IF(OR(C67="",D67=""),"","/structurize scan "&amp;C67&amp;" "&amp;D67&amp;" @p ""trade post/"&amp;E67&amp;"/"&amp;A67&amp;B67&amp;""""&amp;IF(F67="",""," " &amp;F67))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>2</v>
       </c>
-      <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>3</v>
       </c>
-      <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>4</v>
       </c>
-      <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5</v>
       </c>
-      <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1</v>
       </c>
-      <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>2</v>
       </c>
-      <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>3</v>
       </c>
-      <c r="E74" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>4</v>
       </c>
-      <c r="E75" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5</v>
       </c>
-      <c r="E76" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1</v>
       </c>
-      <c r="E77" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>2</v>
       </c>
-      <c r="E78" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>3</v>
       </c>
-      <c r="E79" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>4</v>
       </c>
-      <c r="E80" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>5</v>
       </c>
-      <c r="E81" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1</v>
       </c>
-      <c r="E82" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>2</v>
       </c>
-      <c r="E83" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>3</v>
       </c>
-      <c r="E84" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>4</v>
       </c>
-      <c r="E85" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>5</v>
       </c>
-      <c r="E86" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="E87" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>2</v>
       </c>
-      <c r="E88" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>3</v>
       </c>
-      <c r="E89" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>4</v>
       </c>
-      <c r="E90" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>5</v>
       </c>
-      <c r="E91" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>132</v>
+      </c>
       <c r="B92">
         <v>1</v>
       </c>
-      <c r="E92" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" t="s">
+        <v>133</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>/structurize scan 760 -51 -7 768 -37 1 @p "trade post/military/guardtower1"</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>132</v>
+      </c>
       <c r="B93">
         <v>2</v>
       </c>
-      <c r="E93" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D93" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>/structurize scan 760 -51 -55 768 -37 -47 @p "trade post/military/guardtower2"</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>132</v>
+      </c>
       <c r="B94">
         <v>3</v>
       </c>
-      <c r="E94" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>/structurize scan 760 -51 -103 768 -37 -95 @p "trade post/military/guardtower3"</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>132</v>
+      </c>
       <c r="B95">
         <v>4</v>
       </c>
-      <c r="E95" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E95" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>/structurize scan 760 -51 -151 768 -37 -143 @p "trade post/military/guardtower4"</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>132</v>
+      </c>
       <c r="B96">
         <v>5</v>
       </c>
-      <c r="E96" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C96" t="s">
+        <v>142</v>
+      </c>
+      <c r="D96" t="s">
+        <v>143</v>
+      </c>
+      <c r="E96" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>/structurize scan 760 -51 -199 768 -37 -191 @p "trade post/military/guardtower5"</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>5</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>5</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G186" si="2">IF(OR(C131="",D131=""),"","/structurize scan "&amp;C131&amp;" "&amp;D131&amp;" @p ""trade post/"&amp;E131&amp;"/"&amp;A131&amp;B131&amp;""""&amp;IF(F131="",""," " &amp;F131))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>87</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97" s="1" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E97" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1480 -51 1 1508 -30 -36 @p "trade post/economic/university1"</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="E142" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F142" s="1"/>
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1480 -51 1 1508 -30 -36 @p "trade post/education/university1"</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>87</v>
       </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
         <v>90</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D143" t="s">
         <v>91</v>
       </c>
-      <c r="E98" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1480 -51 -47 1508 -30 -84 @p "trade post/economic/university2"</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="E143" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F143" s="1"/>
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1480 -51 -47 1508 -30 -84 @p "trade post/education/university2"</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>87</v>
       </c>
-      <c r="B99">
-        <v>3</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D144" t="s">
         <v>93</v>
       </c>
-      <c r="E99" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1480 -51 -95 1508 -30 -132 @p "trade post/economic/university3"</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="E144" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F144" s="1"/>
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1480 -51 -95 1508 -30 -132 @p "trade post/education/university3"</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>87</v>
       </c>
-      <c r="B100">
-        <v>4</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E100" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1480 -51 -143 1508 -30 -180 @p "trade post/economic/university4"</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="E145" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F145" s="1"/>
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1480 -51 -143 1508 -30 -180 @p "trade post/education/university4"</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>87</v>
       </c>
-      <c r="B101">
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E101" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1480 -51 -191 1508 -30 -228 @p "trade post/economic/university5"</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="E146" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F146" s="1"/>
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1480 -51 -191 1508 -30 -228 @p "trade post/education/university5"</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>65</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" s="1" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E102" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1528 -51 -13 1546 -34 1 @p "trade post/economic/hospital1"</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="E147" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F147" s="1"/>
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1528 -51 -13 1546 -34 1 @p "trade post/fundamentals/hospital1"</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>65</v>
       </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E103" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1528 -51 -61 1546 -34 -47 @p "trade post/economic/hospital2"</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="E148" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F148" s="1"/>
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1528 -51 -61 1546 -34 -47 @p "trade post/fundamentals/hospital2"</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>65</v>
       </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E104" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1528 -51 -109 1546 -34 -95 @p "trade post/economic/hospital3"</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="E149" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F149" s="1"/>
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1528 -51 -109 1546 -34 -95 @p "trade post/fundamentals/hospital3"</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>65</v>
       </c>
-      <c r="B105">
-        <v>4</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E105" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1528 -51 -157 1546 -34 -143 @p "trade post/economic/hospital4"</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="E150" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F150" s="1"/>
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1528 -51 -157 1546 -34 -143 @p "trade post/fundamentals/hospital4"</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>65</v>
       </c>
-      <c r="B106">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E106" t="str">
-        <f t="shared" si="1"/>
-        <v>/structurize scan 1528 -51 -205 1546 -34 -191 @p "trade post/economic/hospital5"</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>1</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109">
-        <v>3</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B110">
-        <v>4</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B111">
-        <v>5</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>2</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114">
-        <v>3</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115">
-        <v>4</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116">
-        <v>5</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118">
-        <v>2</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <v>3</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120">
-        <v>4</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121">
-        <v>5</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122">
-        <v>1</v>
-      </c>
-      <c r="E122" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124">
-        <v>3</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125">
-        <v>4</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126">
-        <v>5</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128">
-        <v>2</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129">
-        <v>3</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B130">
-        <v>4</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B131">
-        <v>5</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E141" si="2">IF(OR(C131="",D131=""),"","/structurize scan "&amp;C131&amp;" "&amp;D131&amp;" @p ""trade post/economic/"&amp;A131&amp;B131&amp;"""")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B133">
-        <v>2</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B134">
-        <v>3</v>
-      </c>
-      <c r="E134" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135">
-        <v>4</v>
-      </c>
-      <c r="E135" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B136">
-        <v>5</v>
-      </c>
-      <c r="E136" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="E151" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>/structurize scan 1528 -51 -205 1546 -34 -191 @p "trade post/fundamentals/hospital5"</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="G163" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="G164" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="G165" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>5</v>
+      </c>
+      <c r="G166" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="G167" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="G168" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>3</v>
+      </c>
+      <c r="G169" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="G172" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="G173" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>3</v>
+      </c>
+      <c r="G174" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="G175" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>5</v>
+      </c>
+      <c r="G176" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="G177" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="G178" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="G179" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="G180" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>76</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-      <c r="C137" s="1" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E137" t="str">
+      <c r="E182" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F182" s="1"/>
+      <c r="G182" t="str">
         <f t="shared" si="2"/>
         <v>/structurize scan 2506 -51 -14 2488 -35 1 @p "trade post/economic/station1"</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>76</v>
       </c>
-      <c r="B138">
-        <v>2</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E138" t="str">
+      <c r="E183" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" t="str">
         <f t="shared" si="2"/>
         <v>/structurize scan 2506 -51 -62 2488 -35 -47 @p "trade post/economic/station2"</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>76</v>
       </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E139" t="str">
+      <c r="E184" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" t="str">
         <f t="shared" si="2"/>
         <v>/structurize scan 2506 -51 -110 2488 -35 -95 @p "trade post/economic/station3"</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>76</v>
       </c>
-      <c r="B140">
-        <v>4</v>
-      </c>
-      <c r="C140" s="1" t="s">
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E140" t="str">
+      <c r="E185" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F185" s="1"/>
+      <c r="G185" t="str">
         <f t="shared" si="2"/>
         <v>/structurize scan 2506 -51 -158 2488 -35 -143 @p "trade post/economic/station4"</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>76</v>
       </c>
-      <c r="B141">
-        <v>5</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B186">
+        <v>5</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E141" t="str">
+      <c r="E186" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F186" s="1"/>
+      <c r="G186" t="str">
         <f t="shared" si="2"/>
         <v>/structurize scan 2506 -51 -206 2488 -35 -191 @p "trade post/economic/station5"</v>
       </c>
